--- a/results/FrequencyTables/26990633_Gag-B.xlsx
+++ b/results/FrequencyTables/26990633_Gag-B.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0226437462951986</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0224066390041494</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0228808535862478</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0036751630112626</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0340248962655602</v>
       </c>
       <c r="H2">
-        <v>0.9</v>
+        <v>0.897213989330172</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0032009484291642</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.987077652637819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.967753408417309</v>
       </c>
       <c r="L2">
-        <v>0.03</v>
+        <v>0.0469472436277416</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000948429164196799</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0126852400711322</v>
       </c>
       <c r="O2">
-        <v>0.25</v>
+        <v>0.651570835803201</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.996324836988737</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="R2">
-        <v>0.01</v>
+        <v>0.0013040901007706</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.014226437462952</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.891049199762893</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0026081802015412</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0020154119739182</v>
       </c>
       <c r="X2">
-        <v>0.03</v>
+        <v>0.157913455838767</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.975933609958506</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0162418494368702</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00580912863070539</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.972021339656194</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.950800237107291</v>
       </c>
       <c r="G3">
-        <v>0.87</v>
+        <v>0.794783639596918</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.0461173681090694</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.958269116775341</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0013040901007706</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00663900414937759</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0407824540604624</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0001185536455246</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.0001185536455246</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0050978067575578</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000592768227622999</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.984943687018376</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.999644339063426</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000948429164196799</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0158861885002964</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0224066390041494</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000711321873147599</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0003556609365738</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0003556609365738</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0024896265560166</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0232365145228216</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0001185536455246</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0425607587433314</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0359217545939538</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00497925311203319</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0212211025489034</v>
       </c>
       <c r="L4">
-        <v>0.97</v>
+        <v>0.9036158861885</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.998814463544754</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.986840545346769</v>
       </c>
       <c r="O4">
-        <v>0.75</v>
+        <v>0.323532898636633</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000711321873147599</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.999762892708951</v>
       </c>
       <c r="R4">
-        <v>0.99</v>
+        <v>0.998103141671606</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0001185536455246</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0001185536455246</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.10231179608773</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.97474807350326</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.975222288085359</v>
       </c>
       <c r="X4">
-        <v>0.97</v>
+        <v>0.829994072317724</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,37 +687,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0003556609365738</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.95850622406639</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.967753408417309</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0235921754593954</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0239478363959692</v>
       </c>
       <c r="G5">
-        <v>0.13</v>
+        <v>0.163604030823948</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0114997036158862</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0014226437462952</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00616478956727919</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000829875518672199</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.0004742145820984</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00675755779490219</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0002371072910492</v>
       </c>
     </row>
   </sheetData>
